--- a/Mifos Automation Excels/Client/4444-CreateActiveCenterwithmeetingattachedasweeklyFriday-Modifymeeting-Futuremeeting-Changemeetingdatefrom10April2015to15April2015.xlsx
+++ b/Mifos Automation Excels/Client/4444-CreateActiveCenterwithmeetingattachedasweeklyFriday-Modifymeeting-Futuremeeting-Changemeetingdatefrom10April2015to15April2015.xlsx
@@ -80,10 +80,10 @@
     <t>clickonsubmit1</t>
   </si>
   <si>
+    <t>center4444</t>
+  </si>
+  <si>
     <t>verifycentername</t>
-  </si>
-  <si>
-    <t>center4444</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -634,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
